--- a/ReportingRetour.xlsx
+++ b/ReportingRetour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCF1563-48C3-4FBC-A825-898F95A74071}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9956F15-5D32-4A24-BDCD-BEBC1024F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>trretourfacttiers</t>
+  </si>
+  <si>
+    <t>.xlsx // tsisy N ao amle date</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +346,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -369,6 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,14 +697,14 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="9" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
@@ -810,8 +820,8 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
+      <c r="D4" s="12">
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -872,7 +882,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -1002,8 +1012,8 @@
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
+      <c r="D10" s="12">
+        <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
@@ -1290,8 +1300,8 @@
       <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
+      <c r="D19" s="12">
+        <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>6</v>
@@ -1385,6 +1395,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F42747-A4A4-457F-94C6-5CD466A789E8}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ReportingRetour.xlsx
+++ b/ReportingRetour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9956F15-5D32-4A24-BDCD-BEBC1024F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D4038-3388-40F6-B8D0-D37C5CEA44A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-20580" yWindow="2970" windowWidth="13230" windowHeight="9855" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>/TRAITEMENT_RETOUR_FACT_HOSPI/MULTI/</t>
   </si>
   <si>
-    <t>Trame_Traiter_Retour_Facture_Optique</t>
-  </si>
-  <si>
     <t>/TRAITEMENT_RETOUR_FACT_STC/PACK_NORMAUX/</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>.xlsx // tsisy N ao amle date</t>
+  </si>
+  <si>
+    <t>RECLAM_OPTIQUE</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +352,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -365,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -379,6 +385,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,20 +704,20 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="9" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="58.7109375" customWidth="1"/>
     <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
@@ -778,35 +786,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -882,10 +890,10 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -1019,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>6</v>
@@ -1045,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>6</v>
@@ -1063,7 +1071,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1071,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>1</v>
@@ -1083,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>2</v>
@@ -1092,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1103,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>1</v>
@@ -1115,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>2</v>
@@ -1124,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>9</v>
@@ -1135,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>1</v>
@@ -1147,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>2</v>
@@ -1156,42 +1164,42 @@
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>53</v>
+      <c r="J15" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1199,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>5</v>
@@ -1211,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>6</v>
@@ -1220,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1243,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1252,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
         <v>56</v>
-      </c>
-      <c r="J17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1263,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>3</v>
@@ -1275,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>6</v>
@@ -1284,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>3</v>
@@ -1307,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>6</v>
@@ -1316,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1327,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>5</v>
@@ -1339,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>6</v>
@@ -1348,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1359,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>3</v>
@@ -1371,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>4</v>
@@ -1380,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/ReportingRetour.xlsx
+++ b/ReportingRetour.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetOdilon\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D4038-3388-40F6-B8D0-D37C5CEA44A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510BC54D-BEF9-4908-8CEC-8BAC302F2F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20580" yWindow="2970" windowWidth="13230" windowHeight="9855" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -275,6 +275,54 @@
   </si>
   <si>
     <t>RECLAM_OPTIQUE</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR AAOTD N2</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR AUDIO</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR DENT</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR FACT DENT</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR FACT HOSPI\GTO</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR FACT OPTIQUE</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR HOSPI</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR INDU NOE HTP</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR LDR N2\ALMERYS</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR FACT HOSPI\MULTI</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR FACT STC\PACK NORMAUX</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR TRE N2</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR LDR N2\CBTP</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR CENTRE DE SOINS\SE</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR OTD N2</t>
+  </si>
+  <si>
+    <t>\TRAITEMENT RETOUR FACT TIERS\RECLAMATION TIERS</t>
   </si>
 </sst>
 </file>
@@ -702,10 +750,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +767,12 @@
     <col min="7" max="7" width="31.85546875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="58.7109375" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="10" max="10" width="48" customWidth="1"/>
+    <col min="11" max="11" width="61.85546875" customWidth="1"/>
+    <col min="12" max="12" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -753,8 +803,14 @@
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -785,8 +841,14 @@
       <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -817,8 +879,14 @@
       <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -849,8 +917,14 @@
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -881,8 +955,14 @@
       <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -913,8 +993,14 @@
       <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -945,8 +1031,14 @@
       <c r="J7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -977,8 +1069,14 @@
       <c r="J8" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1009,8 +1107,14 @@
       <c r="J9" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1145,14 @@
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1183,14 @@
       <c r="J11" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -1105,8 +1221,14 @@
       <c r="J12" s="11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -1137,8 +1259,14 @@
       <c r="J13" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -1169,8 +1297,14 @@
       <c r="J14" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1335,14 @@
       <c r="J15" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1373,14 @@
       <c r="J16" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1411,14 @@
       <c r="J17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +1449,14 @@
       <c r="J18" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
@@ -1329,8 +1487,14 @@
       <c r="J19" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +1525,14 @@
       <c r="J20" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -1391,6 +1561,12 @@
         <v>78</v>
       </c>
       <c r="J21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>77</v>
       </c>
     </row>

--- a/ReportingRetour.xlsx
+++ b/ReportingRetour.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetOdilon\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1B99C5-8F43-4D56-AD61-41A2F4116456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70B05D7-A698-45D1-A5F9-4674E4D55679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -730,8 +730,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
